--- a/Analysis Quarter Regression.xlsx
+++ b/Analysis Quarter Regression.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sweta\US-Housing-Data-Wrangling-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -190,6 +190,3964 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>RMSE Year</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> 2007</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.38329770000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4333457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44546289999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51138499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1991-462B-A03F-F34FD6D2D7A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="382685192"/>
+        <c:axId val="382686832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="382685192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382686832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="382686832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382685192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>RMSE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Year 2009</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38029855643044619"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.38778550000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4333457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53903939999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4578525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9CF-4507-BC9D-C4ECA39D6B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="382258320"/>
+        <c:axId val="382259304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="382258320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382259304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="382259304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382258320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>RMSE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Year 1999</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.35887629999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44432260000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53085260000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7C3-4BB8-8B66-F68BBBE09700}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="385224768"/>
+        <c:axId val="385230672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="385224768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385230672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="385230672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385224768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>RMSE Year 2013</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.57300549999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6310287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8510278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61284490000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B936-40CC-8FAE-0642D53DF51E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="387923624"/>
+        <c:axId val="387925592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="387923624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387925592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="387925592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387923624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D92755F-FFE6-4F19-ABB1-EB1EC2F2A6F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D02971-A60E-43AD-A5C4-87E6C309D752}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6697660-8C0F-48B3-895A-67FA567CA9F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0039ED44-4170-463E-BB83-D8F51FD8222D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -490,7 +4448,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -923,5 +4881,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>